--- a/PhoneCell.xlsx
+++ b/PhoneCell.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Steph Lackerdas</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,10 @@
   </si>
   <si>
     <t>Sandy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfakadf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,10 +631,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -640,7 +644,7 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -648,7 +652,7 @@
         <v>7025707658</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -656,7 +660,7 @@
         <v>5622426602</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -664,7 +668,7 @@
         <v>3604509947</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -672,7 +676,7 @@
         <v>6267100602</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -680,7 +684,7 @@
         <v>6263406228</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -688,15 +692,18 @@
         <v>6266149483</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
         <v>8183899331</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -704,7 +711,7 @@
         <v>6512454350</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -712,7 +719,7 @@
         <v>6266366632</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -720,7 +727,7 @@
         <v>9096679049</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -728,7 +735,7 @@
         <v>6266965527</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -736,7 +743,7 @@
         <v>6262340582</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -744,7 +751,7 @@
         <v>9096849466</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -752,7 +759,7 @@
         <v>9184081273</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -760,7 +767,7 @@
         <v>5035319132</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1127,7 +1134,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/PhoneCell.xlsx
+++ b/PhoneCell.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Steph Lackerdas</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,7 +261,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dfakadf</t>
+    <t>Mason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>443-6600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,8 +703,11 @@
       <c r="B7">
         <v>8183899331</v>
       </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1134,6 +1141,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
